--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mishr\OneDrive\Desktop\Proj\new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mishr\OneDrive\Desktop\FastAPI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50566869-7727-4218-BF31-E052CAB619AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F7A1E8-7523-4567-B886-DB8E34E6A45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3361066A-79EC-40A8-9184-707F5DF57DBA}"/>
   </bookViews>
@@ -851,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22715226-273A-4802-81B5-772E58C94FAB}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
